--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.01812889820934</v>
+        <v>90.00975568071958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4368919386694945</v>
+        <v>0.4781807001746072</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.97570136092536</v>
+        <v>88.96153898667157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5030412514617795</v>
+        <v>0.4195398466200975</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.07496988637327</v>
+        <v>87.94704544631428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4462969693159547</v>
+        <v>0.4637014037783257</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.08481066800923</v>
+        <v>86.98160497520827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4816736332405865</v>
+        <v>0.4436364968400423</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.99588818343096</v>
+        <v>86.02064174021586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4862105519383774</v>
+        <v>0.4781249616405074</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.96286587202344</v>
+        <v>85.09607668644946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4971534692237085</v>
+        <v>0.4528243413115315</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02358956522916</v>
+        <v>83.97807062688858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4832972701785585</v>
+        <v>0.5193917518609614</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.99190555279904</v>
+        <v>82.97212019114721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.506564250684312</v>
+        <v>0.5147510707090921</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.99234385776472</v>
+        <v>82.02259299050878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5399187383371692</v>
+        <v>0.5044760080119247</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99501167334833</v>
+        <v>81.00605260546476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5219986509379273</v>
+        <v>0.4803490421729109</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97246790344052</v>
+        <v>79.99968510995959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4943663705190893</v>
+        <v>0.5235336172898952</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.04481913611188</v>
+        <v>78.9626034330891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5206317868480062</v>
+        <v>0.5019200078834701</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.95445110710369</v>
+        <v>78.05947992830002</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5707410905157507</v>
+        <v>0.5093716620510136</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.93701123446826</v>
+        <v>76.93172278819978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5597137212134707</v>
+        <v>0.4908992646035752</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.93670319621448</v>
+        <v>76.0882033954164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5616858646651346</v>
+        <v>0.5093692847521641</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.06696473792968</v>
+        <v>74.95465688217305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5478795437447485</v>
+        <v>0.5705279956893868</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.86965549567405</v>
+        <v>73.95979759635435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.636405575408355</v>
+        <v>0.5235836362410595</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.98171209426239</v>
+        <v>73.13783922863126</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5323243394913302</v>
+        <v>0.4995768424718707</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.02614071554642</v>
+        <v>72.01868643939821</v>
       </c>
       <c r="D20" t="n">
-        <v>0.544169052280569</v>
+        <v>0.5596385463009028</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.00038175048796</v>
+        <v>70.95953804535493</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4982787169816265</v>
+        <v>0.5780617525081665</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9299908461394</v>
+        <v>70.07329074637788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5628005279823793</v>
+        <v>0.5309709970891114</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.05393407374434</v>
+        <v>69.03331321305103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6294534978966477</v>
+        <v>0.5858918417256422</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.03593193514044</v>
+        <v>67.93982567673353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5478947522787403</v>
+        <v>0.6546809183872248</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.01733492065775</v>
+        <v>67.07016118841756</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6428690689275317</v>
+        <v>0.6225187995867096</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.77079739785721</v>
+        <v>66.05791671432614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6008855983344569</v>
+        <v>0.6063318368470968</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.0382516263071</v>
+        <v>64.91323047949912</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6220625529709444</v>
+        <v>0.4771847034192683</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.00347687599503</v>
+        <v>64.13567647594611</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5699405668006325</v>
+        <v>0.5608550282728676</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.88261907638994</v>
+        <v>62.97250636135692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6465746916169265</v>
+        <v>0.6165348491277511</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04710677628861</v>
+        <v>62.02439442629814</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5718688718520151</v>
+        <v>0.5835408052792078</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.10707768333038</v>
+        <v>60.8941195531469</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6019453975615011</v>
+        <v>0.6293837940715856</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.93195054333192</v>
+        <v>59.92489081820058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5900407717372386</v>
+        <v>0.57879431528264</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.09772964045229</v>
+        <v>59.09790723245968</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6518985753931363</v>
+        <v>0.5937113130768876</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.05479106153024</v>
+        <v>58.06599470356435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6630565234116658</v>
+        <v>0.6272690908423806</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99845277457218</v>
+        <v>56.92327221913956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5963254838314439</v>
+        <v>0.6544870175215165</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.98637759741021</v>
+        <v>56.08710882940039</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5828302320366423</v>
+        <v>0.6613987257903639</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01571861681649</v>
+        <v>54.91164830527775</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7153320770308458</v>
+        <v>0.6955591827338586</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.01512313220984</v>
+        <v>54.00896431711315</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6808336865983916</v>
+        <v>0.7019866258555243</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.98503564966641</v>
+        <v>53.05287275664183</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6307403634164608</v>
+        <v>0.6122186425672006</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.9411490659813</v>
+        <v>51.96678526473595</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5889925895766115</v>
+        <v>0.6385385922118795</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.89459634456303</v>
+        <v>50.96976135363713</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6129028940273235</v>
+        <v>0.655411014816397</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.06523245654508</v>
+        <v>50.00232428328341</v>
       </c>
       <c r="D42" t="n">
-        <v>0.678485077897181</v>
+        <v>0.6731184989639424</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.93759713315649</v>
+        <v>48.8997139033509</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6911884134431443</v>
+        <v>0.7319812860371255</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.03204416320472</v>
+        <v>48.01711487921205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6528807476670468</v>
+        <v>0.7685167803097397</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.02299613783407</v>
+        <v>46.93993024783194</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6854547409702784</v>
+        <v>0.7391981431509868</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.01780066315413</v>
+        <v>46.06893094382599</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7206566728069168</v>
+        <v>0.7044909576659806</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.05685323946125</v>
+        <v>44.90851793497681</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6259722916186027</v>
+        <v>0.7855739485548248</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.97886201005547</v>
+        <v>43.97630455634167</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6459640259342669</v>
+        <v>0.7441279904434291</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.0011163024401</v>
+        <v>43.04016066070849</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7148145394589969</v>
+        <v>0.6496206629252563</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.96626141453041</v>
+        <v>42.04565139796643</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6835295398347944</v>
+        <v>0.5505707722382772</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97746847734025</v>
+        <v>41.03386900460762</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7310436273939788</v>
+        <v>0.6927930477937354</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.94653813479952</v>
+        <v>40.13566536849269</v>
       </c>
       <c r="D52" t="n">
-        <v>0.724319712448341</v>
+        <v>0.6905076140913569</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.03527981965448</v>
+        <v>39.01070570029172</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7925241284332513</v>
+        <v>0.7853017163117654</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.90239160120353</v>
+        <v>38.06330103905159</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7766385652410743</v>
+        <v>0.668154063548985</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01341314508138</v>
+        <v>36.94069702952685</v>
       </c>
       <c r="D55" t="n">
-        <v>0.740944633502274</v>
+        <v>0.6464504380977769</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.99622068668762</v>
+        <v>36.0389364151515</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6908167183309732</v>
+        <v>0.793330065427005</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.991885724452</v>
+        <v>34.99896513376518</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7254628831295906</v>
+        <v>0.7854044200619994</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.86605540604557</v>
+        <v>34.11983807016298</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6915194601232726</v>
+        <v>0.7107280787643028</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03678608292497</v>
+        <v>33.00376549766828</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7421584426263519</v>
+        <v>0.6829908560125149</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99793948083652</v>
+        <v>31.98160058209552</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7241950431074216</v>
+        <v>0.7668739596638932</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.82794544492412</v>
+        <v>31.10071238608501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7798563198171393</v>
+        <v>0.7971431222702199</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.92193081745427</v>
+        <v>30.01541583325177</v>
       </c>
       <c r="D62" t="n">
-        <v>0.750552082720546</v>
+        <v>0.7683750030880392</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.15865969671467</v>
+        <v>28.7592121481135</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7174183856246862</v>
+        <v>0.8311494527368583</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.05433088204888</v>
+        <v>27.89460716183507</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7237631794382571</v>
+        <v>0.7297598333829277</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97465167966351</v>
+        <v>26.94326181655955</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7370404467578657</v>
+        <v>0.8209269892808396</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.03844236354648</v>
+        <v>26.06897505511095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7563551090343086</v>
+        <v>0.8115258657950223</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.9754994848267</v>
+        <v>25.03834018903973</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7640151120942272</v>
+        <v>0.7413786951309398</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.0065230443707</v>
+        <v>24.01373627482677</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8081239573240468</v>
+        <v>0.7422930563961218</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03511056558274</v>
+        <v>22.99499409121306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7663310288753303</v>
+        <v>0.8673471150307586</v>
       </c>
     </row>
   </sheetData>
